--- a/biology/Botanique/Phaeosacciaceae/Phaeosacciaceae.xlsx
+++ b/biology/Botanique/Phaeosacciaceae/Phaeosacciaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phaeosacciaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Phaeosacciophyceae et de l’ordre des Phaeosacciales.
-Le genre Phaeosaccion vit exclusivement dans les eaux froides, des zones boréales-arctiques (nord-est de l'Amérique du Nord et nord de l'Europe)[1].
+Le genre Phaeosaccion vit exclusivement dans les eaux froides, des zones boréales-arctiques (nord-est de l'Amérique du Nord et nord de l'Europe).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Phaeosaccion, dérivé du grec φαιός / faiós, « brun, sombre », et σακκιον / sakkion, « petit sac », en référence à l'aspect des thalles de cette algue « en forme de sac constitué d'une seule couche de cellules »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Phaeosaccion, dérivé du grec φαιός / faiós, « brun, sombre », et σακκιον / sakkion, « petit sac », en référence à l'aspect des thalles de cette algue « en forme de sac constitué d'une seule couche de cellules ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Phaeosaccion possède un thalle de forme tubulaire ou de sac[2], monostromatique (c'est-à-dire formée d'une couche unique de cellules), atteignant 20 cm de long et 2 cm de large, de couleur brun olive, ressemblant à de jeunes plants de Scytosiphon (algue brune de la famille des Scytosiphonaceae), de sorte que ce genre a été considéré comme un membre des Phéophycées pendant près d'un siècle[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Phaeosaccion possède un thalle de forme tubulaire ou de sac, monostromatique (c'est-à-dire formée d'une couche unique de cellules), atteignant 20 cm de long et 2 cm de large, de couleur brun olive, ressemblant à de jeunes plants de Scytosiphon (algue brune de la famille des Scytosiphonaceae), de sorte que ce genre a été considéré comme un membre des Phéophycées pendant près d'un siècle.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quand il créa cette famille en 1949, Jean Feldmann la considéra comme faisant partie de l'ordre des Scytosiphonales, c'est-à-dire une Phaeophyceae[1],[2]. Dans les années 1970, des études morphologiques et biochimiques ont un temps attribué cette algue à la classe des Chrysophyceae[1] avant que la classe des Phaeosacciophyceae ne soit créée en 2020. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand il créa cette famille en 1949, Jean Feldmann la considéra comme faisant partie de l'ordre des Scytosiphonales, c'est-à-dire une Phaeophyceae,. Dans les années 1970, des études morphologiques et biochimiques ont un temps attribué cette algue à la classe des Chrysophyceae avant que la classe des Phaeosacciophyceae ne soit créée en 2020. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (24 février 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (24 février 2022) :
 Chlorophaeoclonium Péterfi, 1948
 Giraudyopsis P.J.L.Dangeard, 1965 - nom invalide
 Phaeosaccion Farlow, 1882 - genre type
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jean Feldmann, « L'ordre des Scytosiphonales », Travaux botaniques dédiés à René Maire - Mémoires hors-série de la Société d'Histoire naturelle de l'Afrique du Nord, Alger, vol. 2,‎ mai 1949, p. 103-115 (lire en ligne, consulté le 24 février 2022).</t>
         </is>
